--- a/team_specific_matrix/Saint Joseph's_B.xlsx
+++ b/team_specific_matrix/Saint Joseph's_B.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1971830985915493</v>
+        <v>0.1969111969111969</v>
       </c>
       <c r="C2">
-        <v>0.5586854460093896</v>
+        <v>0.5521235521235521</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.01408450704225352</v>
+        <v>0.0193050193050193</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1408450704225352</v>
+        <v>0.138996138996139</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.0892018779342723</v>
+        <v>0.09266409266409266</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.008403361344537815</v>
+        <v>0.01388888888888889</v>
       </c>
       <c r="C3">
-        <v>0.01680672268907563</v>
+        <v>0.02777777777777778</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.01680672268907563</v>
+        <v>0.02083333333333333</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7815126050420168</v>
+        <v>0.7569444444444444</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.1764705882352941</v>
+        <v>0.1805555555555556</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.07317073170731707</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.6341463414634146</v>
+        <v>0.6444444444444445</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.2926829268292683</v>
+        <v>0.2888888888888889</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.05442176870748299</v>
+        <v>0.07216494845360824</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.02040816326530612</v>
+        <v>0.0154639175257732</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.1020408163265306</v>
+        <v>0.09278350515463918</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.1972789115646258</v>
+        <v>0.2010309278350516</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.006802721088435374</v>
+        <v>0.005154639175257732</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1564625850340136</v>
+        <v>0.1391752577319588</v>
       </c>
       <c r="R6">
-        <v>0.08163265306122448</v>
+        <v>0.09793814432989691</v>
       </c>
       <c r="S6">
-        <v>0.3809523809523809</v>
+        <v>0.3762886597938144</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1167883211678832</v>
+        <v>0.1220930232558139</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.0291970802919708</v>
+        <v>0.02325581395348837</v>
       </c>
       <c r="E7">
-        <v>0.0072992700729927</v>
+        <v>0.005813953488372093</v>
       </c>
       <c r="F7">
-        <v>0.06569343065693431</v>
+        <v>0.05813953488372093</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1167883211678832</v>
+        <v>0.1162790697674419</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.0145985401459854</v>
+        <v>0.02325581395348837</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1532846715328467</v>
+        <v>0.1511627906976744</v>
       </c>
       <c r="R7">
-        <v>0.08759124087591241</v>
+        <v>0.0872093023255814</v>
       </c>
       <c r="S7">
-        <v>0.4087591240875912</v>
+        <v>0.4127906976744186</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.09508196721311475</v>
+        <v>0.08616187989556136</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.02295081967213115</v>
+        <v>0.01827676240208877</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.04590163934426229</v>
+        <v>0.04960835509138381</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1344262295081967</v>
+        <v>0.1305483028720627</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.003278688524590164</v>
+        <v>0.01044386422976501</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1442622950819672</v>
+        <v>0.1331592689295039</v>
       </c>
       <c r="R8">
-        <v>0.140983606557377</v>
+        <v>0.1409921671018277</v>
       </c>
       <c r="S8">
-        <v>0.4131147540983607</v>
+        <v>0.4308093994778068</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.0958904109589041</v>
+        <v>0.1048689138576779</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.0136986301369863</v>
+        <v>0.02247191011235955</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.0639269406392694</v>
+        <v>0.06367041198501873</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1232876712328767</v>
+        <v>0.1198501872659176</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.0136986301369863</v>
+        <v>0.01123595505617977</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1461187214611872</v>
+        <v>0.1460674157303371</v>
       </c>
       <c r="R9">
-        <v>0.1004566210045662</v>
+        <v>0.0898876404494382</v>
       </c>
       <c r="S9">
-        <v>0.4429223744292237</v>
+        <v>0.4419475655430712</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.09667359667359668</v>
+        <v>0.08975444538526672</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.02494802494802495</v>
+        <v>0.02116850127011008</v>
       </c>
       <c r="E10">
-        <v>0.00103950103950104</v>
+        <v>0.000846740050804403</v>
       </c>
       <c r="F10">
-        <v>0.05717255717255718</v>
+        <v>0.06350550381033022</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1351351351351351</v>
+        <v>0.1303979678238781</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.01767151767151767</v>
+        <v>0.01862828111769687</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.1767151767151767</v>
+        <v>0.1727349703640982</v>
       </c>
       <c r="R10">
-        <v>0.1081081081081081</v>
+        <v>0.104995766299746</v>
       </c>
       <c r="S10">
-        <v>0.3825363825363826</v>
+        <v>0.3979678238780694</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1291866028708134</v>
+        <v>0.1380597014925373</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.09090909090909091</v>
+        <v>0.09701492537313433</v>
       </c>
       <c r="K11">
-        <v>0.1961722488038277</v>
+        <v>0.2052238805970149</v>
       </c>
       <c r="L11">
-        <v>0.5741626794258373</v>
+        <v>0.5447761194029851</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.009569377990430622</v>
+        <v>0.01492537313432836</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7661290322580645</v>
+        <v>0.8</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.2016129032258064</v>
+        <v>0.1733333333333333</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.008064516129032258</v>
+        <v>0.006666666666666667</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.02419354838709677</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.6785714285714286</v>
+        <v>0.6470588235294118</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.25</v>
+        <v>0.2941176470588235</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.07142857142857142</v>
+        <v>0.05882352941176471</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,22 +1277,22 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.02890173410404624</v>
+        <v>0.02242152466367713</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.161849710982659</v>
+        <v>0.1524663677130045</v>
       </c>
       <c r="I15">
-        <v>0.06358381502890173</v>
+        <v>0.07174887892376682</v>
       </c>
       <c r="J15">
-        <v>0.3583815028901734</v>
+        <v>0.3497757847533632</v>
       </c>
       <c r="K15">
-        <v>0.04624277456647399</v>
+        <v>0.04484304932735426</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1304,7 +1304,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.09826589595375723</v>
+        <v>0.1031390134529148</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2427745664739884</v>
+        <v>0.2556053811659193</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.007092198581560284</v>
+        <v>0.006024096385542169</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1914893617021277</v>
+        <v>0.1807228915662651</v>
       </c>
       <c r="I16">
-        <v>0.0851063829787234</v>
+        <v>0.0783132530120482</v>
       </c>
       <c r="J16">
-        <v>0.375886524822695</v>
+        <v>0.3975903614457831</v>
       </c>
       <c r="K16">
-        <v>0.1347517730496454</v>
+        <v>0.1325301204819277</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.02836879432624113</v>
+        <v>0.02409638554216868</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.07801418439716312</v>
+        <v>0.0783132530120482</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.09929078014184398</v>
+        <v>0.1024096385542169</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.01718213058419244</v>
+        <v>0.01729106628242075</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1237113402061856</v>
+        <v>0.1152737752161383</v>
       </c>
       <c r="I17">
-        <v>0.1786941580756014</v>
+        <v>0.1671469740634006</v>
       </c>
       <c r="J17">
-        <v>0.4261168384879725</v>
+        <v>0.4322766570605187</v>
       </c>
       <c r="K17">
-        <v>0.08934707903780069</v>
+        <v>0.09510086455331412</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.01718213058419244</v>
+        <v>0.01440922190201729</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.0584192439862543</v>
+        <v>0.06628242074927954</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.08934707903780069</v>
+        <v>0.09221902017291066</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.01030927835051546</v>
+        <v>0.008438818565400843</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1494845360824742</v>
+        <v>0.1561181434599156</v>
       </c>
       <c r="I18">
-        <v>0.1443298969072165</v>
+        <v>0.1350210970464135</v>
       </c>
       <c r="J18">
-        <v>0.3969072164948453</v>
+        <v>0.3839662447257384</v>
       </c>
       <c r="K18">
-        <v>0.09793814432989691</v>
+        <v>0.1012658227848101</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.01030927835051546</v>
+        <v>0.01265822784810127</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.09793814432989691</v>
+        <v>0.109704641350211</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.09278350515463918</v>
+        <v>0.09282700421940929</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01536885245901639</v>
+        <v>0.0202757502027575</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.1915983606557377</v>
+        <v>0.1987023519870235</v>
       </c>
       <c r="I19">
-        <v>0.1188524590163934</v>
+        <v>0.1200324412003244</v>
       </c>
       <c r="J19">
-        <v>0.3688524590163935</v>
+        <v>0.3609083536090835</v>
       </c>
       <c r="K19">
-        <v>0.09733606557377049</v>
+        <v>0.09975669099756691</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.01741803278688524</v>
+        <v>0.0178426601784266</v>
       </c>
       <c r="N19">
-        <v>0.001024590163934426</v>
+        <v>0.0008110300081103001</v>
       </c>
       <c r="O19">
-        <v>0.05942622950819672</v>
+        <v>0.0575831305758313</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1301229508196721</v>
+        <v>0.1240875912408759</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/Saint Joseph's_B.xlsx
+++ b/team_specific_matrix/Saint Joseph's_B.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1969111969111969</v>
+        <v>0.1913357400722022</v>
       </c>
       <c r="C2">
-        <v>0.5521235521235521</v>
+        <v>0.5667870036101083</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.0193050193050193</v>
+        <v>0.01805054151624549</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.138996138996139</v>
+        <v>0.1335740072202166</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.09266409266409266</v>
+        <v>0.09025270758122744</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.01388888888888889</v>
+        <v>0.0125</v>
       </c>
       <c r="C3">
-        <v>0.02777777777777778</v>
+        <v>0.0375</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.02083333333333333</v>
+        <v>0.01875</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7569444444444444</v>
+        <v>0.74375</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.1805555555555556</v>
+        <v>0.1875</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.06666666666666667</v>
+        <v>0.06382978723404255</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.6444444444444445</v>
+        <v>0.6382978723404256</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.2888888888888889</v>
+        <v>0.2978723404255319</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.07216494845360824</v>
+        <v>0.07582938388625593</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.0154639175257732</v>
+        <v>0.01421800947867299</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.09278350515463918</v>
+        <v>0.08530805687203792</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2010309278350516</v>
+        <v>0.2132701421800948</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.005154639175257732</v>
+        <v>0.004739336492890996</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1391752577319588</v>
+        <v>0.1327014218009479</v>
       </c>
       <c r="R6">
-        <v>0.09793814432989691</v>
+        <v>0.0947867298578199</v>
       </c>
       <c r="S6">
-        <v>0.3762886597938144</v>
+        <v>0.3791469194312796</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1220930232558139</v>
+        <v>0.1236559139784946</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.02325581395348837</v>
+        <v>0.02150537634408602</v>
       </c>
       <c r="E7">
-        <v>0.005813953488372093</v>
+        <v>0.005376344086021506</v>
       </c>
       <c r="F7">
-        <v>0.05813953488372093</v>
+        <v>0.05913978494623656</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1162790697674419</v>
+        <v>0.1182795698924731</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.02325581395348837</v>
+        <v>0.02150537634408602</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1511627906976744</v>
+        <v>0.1612903225806452</v>
       </c>
       <c r="R7">
-        <v>0.0872093023255814</v>
+        <v>0.08064516129032258</v>
       </c>
       <c r="S7">
-        <v>0.4127906976744186</v>
+        <v>0.4086021505376344</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.08616187989556136</v>
+        <v>0.09466019417475728</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.01827676240208877</v>
+        <v>0.01941747572815534</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.04960835509138381</v>
+        <v>0.05097087378640777</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1305483028720627</v>
+        <v>0.133495145631068</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.01044386422976501</v>
+        <v>0.01456310679611651</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1331592689295039</v>
+        <v>0.1286407766990291</v>
       </c>
       <c r="R8">
-        <v>0.1409921671018277</v>
+        <v>0.133495145631068</v>
       </c>
       <c r="S8">
-        <v>0.4308093994778068</v>
+        <v>0.424757281553398</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.1048689138576779</v>
+        <v>0.1048951048951049</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.02247191011235955</v>
+        <v>0.02097902097902098</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.06367041198501873</v>
+        <v>0.06643356643356643</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1198501872659176</v>
+        <v>0.1223776223776224</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.01123595505617977</v>
+        <v>0.01048951048951049</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1460674157303371</v>
+        <v>0.1433566433566434</v>
       </c>
       <c r="R9">
-        <v>0.0898876404494382</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="S9">
-        <v>0.4419475655430712</v>
+        <v>0.4405594405594406</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.08975444538526672</v>
+        <v>0.08705882352941176</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.02116850127011008</v>
+        <v>0.0203921568627451</v>
       </c>
       <c r="E10">
-        <v>0.000846740050804403</v>
+        <v>0.000784313725490196</v>
       </c>
       <c r="F10">
-        <v>0.06350550381033022</v>
+        <v>0.06431372549019608</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1303979678238781</v>
+        <v>0.131764705882353</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.01862828111769687</v>
+        <v>0.01803921568627451</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.1727349703640982</v>
+        <v>0.1772549019607843</v>
       </c>
       <c r="R10">
-        <v>0.104995766299746</v>
+        <v>0.1058823529411765</v>
       </c>
       <c r="S10">
-        <v>0.3979678238780694</v>
+        <v>0.3945098039215686</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1380597014925373</v>
+        <v>0.1413793103448276</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.09701492537313433</v>
+        <v>0.09655172413793103</v>
       </c>
       <c r="K11">
-        <v>0.2052238805970149</v>
+        <v>0.2068965517241379</v>
       </c>
       <c r="L11">
-        <v>0.5447761194029851</v>
+        <v>0.5413793103448276</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.01492537313432836</v>
+        <v>0.01379310344827586</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.8</v>
+        <v>0.7839506172839507</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1733333333333333</v>
+        <v>0.1790123456790123</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.006666666666666667</v>
+        <v>0.01234567901234568</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.02</v>
+        <v>0.02469135802469136</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.6470588235294118</v>
+        <v>0.6578947368421053</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2941176470588235</v>
+        <v>0.2631578947368421</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.05882352941176471</v>
+        <v>0.07894736842105263</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.02242152466367713</v>
+        <v>0.02469135802469136</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1524663677130045</v>
+        <v>0.1481481481481481</v>
       </c>
       <c r="I15">
-        <v>0.07174887892376682</v>
+        <v>0.06995884773662552</v>
       </c>
       <c r="J15">
-        <v>0.3497757847533632</v>
+        <v>0.3415637860082305</v>
       </c>
       <c r="K15">
-        <v>0.04484304932735426</v>
+        <v>0.0411522633744856</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>0.00411522633744856</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.1031390134529148</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2556053811659193</v>
+        <v>0.2592592592592592</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.006024096385542169</v>
+        <v>0.005681818181818182</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1807228915662651</v>
+        <v>0.1761363636363636</v>
       </c>
       <c r="I16">
-        <v>0.0783132530120482</v>
+        <v>0.07954545454545454</v>
       </c>
       <c r="J16">
-        <v>0.3975903614457831</v>
+        <v>0.4034090909090909</v>
       </c>
       <c r="K16">
-        <v>0.1325301204819277</v>
+        <v>0.1363636363636364</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.02409638554216868</v>
+        <v>0.02272727272727273</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.0783132530120482</v>
+        <v>0.07386363636363637</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1024096385542169</v>
+        <v>0.1022727272727273</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.01729106628242075</v>
+        <v>0.01851851851851852</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1152737752161383</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="I17">
-        <v>0.1671469740634006</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="J17">
-        <v>0.4322766570605187</v>
+        <v>0.4338624338624338</v>
       </c>
       <c r="K17">
-        <v>0.09510086455331412</v>
+        <v>0.1005291005291005</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.01440922190201729</v>
+        <v>0.01587301587301587</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.06628242074927954</v>
+        <v>0.06349206349206349</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.09221902017291066</v>
+        <v>0.08994708994708994</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.008438818565400843</v>
+        <v>0.007936507936507936</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1561181434599156</v>
+        <v>0.1587301587301587</v>
       </c>
       <c r="I18">
-        <v>0.1350210970464135</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="J18">
-        <v>0.3839662447257384</v>
+        <v>0.3809523809523809</v>
       </c>
       <c r="K18">
-        <v>0.1012658227848101</v>
+        <v>0.0992063492063492</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.01265822784810127</v>
+        <v>0.0119047619047619</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.109704641350211</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.09282700421940929</v>
+        <v>0.09126984126984126</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.0202757502027575</v>
+        <v>0.01963746223564955</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.1987023519870235</v>
+        <v>0.2009063444108761</v>
       </c>
       <c r="I19">
-        <v>0.1200324412003244</v>
+        <v>0.1185800604229607</v>
       </c>
       <c r="J19">
-        <v>0.3609083536090835</v>
+        <v>0.3595166163141994</v>
       </c>
       <c r="K19">
-        <v>0.09975669099756691</v>
+        <v>0.09969788519637462</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.0178426601784266</v>
+        <v>0.01812688821752266</v>
       </c>
       <c r="N19">
-        <v>0.0008110300081103001</v>
+        <v>0.0007552870090634441</v>
       </c>
       <c r="O19">
-        <v>0.0575831305758313</v>
+        <v>0.05891238670694864</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1240875912408759</v>
+        <v>0.1238670694864048</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/Saint Joseph's_B.xlsx
+++ b/team_specific_matrix/Saint Joseph's_B.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1913357400722022</v>
+        <v>0.1868512110726644</v>
       </c>
       <c r="C2">
-        <v>0.5667870036101083</v>
+        <v>0.5709342560553633</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.01805054151624549</v>
+        <v>0.01730103806228374</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1335740072202166</v>
+        <v>0.1314878892733564</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.09025270758122744</v>
+        <v>0.09342560553633218</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.0125</v>
+        <v>0.0119047619047619</v>
       </c>
       <c r="C3">
-        <v>0.0375</v>
+        <v>0.03571428571428571</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.01875</v>
+        <v>0.01785714285714286</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.74375</v>
+        <v>0.75</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.1875</v>
+        <v>0.1845238095238095</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.06382978723404255</v>
+        <v>0.06122448979591837</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.6382978723404256</v>
+        <v>0.6530612244897959</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.2978723404255319</v>
+        <v>0.2857142857142857</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.07582938388625593</v>
+        <v>0.0730593607305936</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.01421800947867299</v>
+        <v>0.0136986301369863</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.08530805687203792</v>
+        <v>0.0821917808219178</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2132701421800948</v>
+        <v>0.2237442922374429</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.004739336492890996</v>
+        <v>0.0045662100456621</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1327014218009479</v>
+        <v>0.1278538812785388</v>
       </c>
       <c r="R6">
-        <v>0.0947867298578199</v>
+        <v>0.091324200913242</v>
       </c>
       <c r="S6">
-        <v>0.3791469194312796</v>
+        <v>0.3835616438356164</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1236559139784946</v>
+        <v>0.1204188481675393</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.02150537634408602</v>
+        <v>0.02094240837696335</v>
       </c>
       <c r="E7">
-        <v>0.005376344086021506</v>
+        <v>0.005235602094240838</v>
       </c>
       <c r="F7">
-        <v>0.05913978494623656</v>
+        <v>0.05759162303664921</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1182795698924731</v>
+        <v>0.1151832460732984</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.02150537634408602</v>
+        <v>0.02094240837696335</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1612903225806452</v>
+        <v>0.162303664921466</v>
       </c>
       <c r="R7">
-        <v>0.08064516129032258</v>
+        <v>0.07853403141361257</v>
       </c>
       <c r="S7">
-        <v>0.4086021505376344</v>
+        <v>0.418848167539267</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.09466019417475728</v>
+        <v>0.09647058823529411</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.01941747572815534</v>
+        <v>0.0188235294117647</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.05097087378640777</v>
+        <v>0.04941176470588235</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.133495145631068</v>
+        <v>0.1341176470588235</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.01456310679611651</v>
+        <v>0.01411764705882353</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1286407766990291</v>
+        <v>0.1411764705882353</v>
       </c>
       <c r="R8">
-        <v>0.133495145631068</v>
+        <v>0.131764705882353</v>
       </c>
       <c r="S8">
-        <v>0.424757281553398</v>
+        <v>0.4141176470588235</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.1048951048951049</v>
+        <v>0.1084745762711864</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.02097902097902098</v>
+        <v>0.02372881355932203</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.06643356643356643</v>
+        <v>0.06779661016949153</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1223776223776224</v>
+        <v>0.1220338983050848</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.01048951048951049</v>
+        <v>0.01016949152542373</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1433566433566434</v>
+        <v>0.1457627118644068</v>
       </c>
       <c r="R9">
-        <v>0.09090909090909091</v>
+        <v>0.08813559322033898</v>
       </c>
       <c r="S9">
-        <v>0.4405594405594406</v>
+        <v>0.4338983050847458</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.08705882352941176</v>
+        <v>0.0893939393939394</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.0203921568627451</v>
+        <v>0.02045454545454545</v>
       </c>
       <c r="E10">
-        <v>0.000784313725490196</v>
+        <v>0.0007575757575757576</v>
       </c>
       <c r="F10">
-        <v>0.06431372549019608</v>
+        <v>0.06363636363636363</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.131764705882353</v>
+        <v>0.1287878787878788</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.01803921568627451</v>
+        <v>0.01893939393939394</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.1772549019607843</v>
+        <v>0.1795454545454545</v>
       </c>
       <c r="R10">
-        <v>0.1058823529411765</v>
+        <v>0.1037878787878788</v>
       </c>
       <c r="S10">
-        <v>0.3945098039215686</v>
+        <v>0.3946969696969697</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1413793103448276</v>
+        <v>0.1442953020134228</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.09655172413793103</v>
+        <v>0.09731543624161074</v>
       </c>
       <c r="K11">
-        <v>0.2068965517241379</v>
+        <v>0.2114093959731544</v>
       </c>
       <c r="L11">
-        <v>0.5413793103448276</v>
+        <v>0.5335570469798657</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.01379310344827586</v>
+        <v>0.01342281879194631</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7839506172839507</v>
+        <v>0.7804878048780488</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1790123456790123</v>
+        <v>0.1829268292682927</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.01234567901234568</v>
+        <v>0.01219512195121951</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.02469135802469136</v>
+        <v>0.02439024390243903</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.6578947368421053</v>
+        <v>0.6585365853658537</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2631578947368421</v>
+        <v>0.2682926829268293</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.07894736842105263</v>
+        <v>0.07317073170731707</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.02469135802469136</v>
+        <v>0.02371541501976284</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1481481481481481</v>
+        <v>0.1422924901185771</v>
       </c>
       <c r="I15">
-        <v>0.06995884773662552</v>
+        <v>0.06719367588932806</v>
       </c>
       <c r="J15">
-        <v>0.3415637860082305</v>
+        <v>0.3438735177865613</v>
       </c>
       <c r="K15">
-        <v>0.0411522633744856</v>
+        <v>0.03952569169960474</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.00411522633744856</v>
+        <v>0.003952569169960474</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.1111111111111111</v>
+        <v>0.1106719367588933</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2592592592592592</v>
+        <v>0.2687747035573123</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.005681818181818182</v>
+        <v>0.005405405405405406</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1761363636363636</v>
+        <v>0.1783783783783784</v>
       </c>
       <c r="I16">
-        <v>0.07954545454545454</v>
+        <v>0.08108108108108109</v>
       </c>
       <c r="J16">
-        <v>0.4034090909090909</v>
+        <v>0.3837837837837838</v>
       </c>
       <c r="K16">
-        <v>0.1363636363636364</v>
+        <v>0.1351351351351351</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.02272727272727273</v>
+        <v>0.03243243243243243</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.07386363636363637</v>
+        <v>0.07567567567567568</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1022727272727273</v>
+        <v>0.1081081081081081</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.01851851851851852</v>
+        <v>0.02005012531328321</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1111111111111111</v>
+        <v>0.112781954887218</v>
       </c>
       <c r="I17">
-        <v>0.1666666666666667</v>
+        <v>0.1629072681704261</v>
       </c>
       <c r="J17">
-        <v>0.4338624338624338</v>
+        <v>0.4360902255639098</v>
       </c>
       <c r="K17">
-        <v>0.1005291005291005</v>
+        <v>0.09774436090225563</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.01587301587301587</v>
+        <v>0.01503759398496241</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.06349206349206349</v>
+        <v>0.07017543859649122</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.08994708994708994</v>
+        <v>0.08521303258145363</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.007936507936507936</v>
+        <v>0.007843137254901961</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1587301587301587</v>
+        <v>0.1568627450980392</v>
       </c>
       <c r="I18">
-        <v>0.1388888888888889</v>
+        <v>0.1411764705882353</v>
       </c>
       <c r="J18">
-        <v>0.3809523809523809</v>
+        <v>0.3764705882352941</v>
       </c>
       <c r="K18">
-        <v>0.0992063492063492</v>
+        <v>0.09803921568627451</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.0119047619047619</v>
+        <v>0.01568627450980392</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.1111111111111111</v>
+        <v>0.1098039215686274</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.09126984126984126</v>
+        <v>0.09411764705882353</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01963746223564955</v>
+        <v>0.02119883040935672</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2009063444108761</v>
+        <v>0.2002923976608187</v>
       </c>
       <c r="I19">
-        <v>0.1185800604229607</v>
+        <v>0.1184210526315789</v>
       </c>
       <c r="J19">
-        <v>0.3595166163141994</v>
+        <v>0.3625730994152047</v>
       </c>
       <c r="K19">
-        <v>0.09969788519637462</v>
+        <v>0.09868421052631579</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.01812688821752266</v>
+        <v>0.01754385964912281</v>
       </c>
       <c r="N19">
-        <v>0.0007552870090634441</v>
+        <v>0.0007309941520467836</v>
       </c>
       <c r="O19">
-        <v>0.05891238670694864</v>
+        <v>0.0577485380116959</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1238670694864048</v>
+        <v>0.1228070175438596</v>
       </c>
     </row>
   </sheetData>
